--- a/MPC_Data.xlsx
+++ b/MPC_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximilian_Drach_XPS\Desktop\Purdue\2024Sp\ECE50863\Networks-Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF379E-0054-4A92-ADC3-4FE5BC021B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E52FC6-4349-488D-B267-315BA4C3F398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="17170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="9384" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="15">
   <si>
     <t>Throughput</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>MPC w/ min rebuffer level == -5</t>
+  </si>
+  <si>
+    <t>MPC w/ min rebuffer level == -10</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J25"/>
+  <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,6 +652,12 @@
         <v>-0.23896995708154509</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <f>AVERAGE(F4:F12)</f>
+        <v>1.5269051025274203</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
@@ -861,6 +870,226 @@
       <c r="F25">
         <f t="shared" si="1"/>
         <v>2.7639484978540761E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>385</v>
+      </c>
+      <c r="D29">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>0.33</v>
+      </c>
+      <c r="F29">
+        <f>($J$5*C29  + $J$6*D29  + $J$4*E29)/$J$7</f>
+        <v>3.1303004291845493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>398</v>
+      </c>
+      <c r="D30">
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>0.33</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F37" si="2">($J$5*C30  + $J$6*D30  + $J$4*E30)/$J$7</f>
+        <v>3.2590557939914162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>380</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>0.47</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>3.1169098712446353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>248</v>
+      </c>
+      <c r="D32">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>0.4</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>1.9261802575107296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>182</v>
+      </c>
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>3.93</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1.2770815450643778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>232</v>
+      </c>
+      <c r="D34">
+        <v>68</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>1.6824034334763949</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>151</v>
+      </c>
+      <c r="D35">
+        <v>78</v>
+      </c>
+      <c r="E35">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.9229184549356223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>56</v>
+      </c>
+      <c r="D36">
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <v>0.95</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.17339055793991415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>13.43</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0.23416309012875539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <f>AVERAGE(F29:F37)</f>
+        <v>1.7469337148307107</v>
       </c>
     </row>
   </sheetData>
